--- a/regionseng/11/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/11/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -221,14 +221,8 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P14"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +530,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -554,7 +548,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -570,7 +564,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="7"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -614,11 +608,17 @@
       <c r="O3" s="19">
         <v>2019</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="20">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="20">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="20">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -664,11 +664,17 @@
       <c r="O4" s="2">
         <v>58.6</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="2">
         <v>30.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -714,11 +720,17 @@
       <c r="O5" s="3">
         <v>58.6</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="3">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="3">
+        <v>32.4</v>
+      </c>
+      <c r="R5" s="3">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -764,11 +776,17 @@
       <c r="O6" s="4">
         <v>2014</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="4">
         <v>1287</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="4">
+        <v>1292</v>
+      </c>
+      <c r="R6" s="4">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -814,11 +832,17 @@
       <c r="O7" s="4">
         <v>1831</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="4">
         <v>1263</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="4">
+        <v>1212</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -864,11 +888,17 @@
       <c r="O8" s="3">
         <v>625.29999999999995</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="3">
         <v>363.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3">
+        <v>395.9</v>
+      </c>
+      <c r="R8" s="3">
+        <v>927.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -914,11 +944,17 @@
       <c r="O9" s="3">
         <v>24.9</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="3">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="R9" s="3">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -964,11 +1000,17 @@
       <c r="O10" s="2">
         <v>13.8</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="2">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="R10" s="2">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1014,11 +1056,17 @@
       <c r="O11" s="2">
         <v>33.700000000000003</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="R11" s="2">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1064,11 +1112,17 @@
       <c r="O12" s="3">
         <v>6.9</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="3">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1114,11 +1168,17 @@
       <c r="O13" s="3">
         <v>27.8</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="3">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3">
+        <v>23.2</v>
+      </c>
+      <c r="R13" s="3">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1164,11 +1224,17 @@
       <c r="O14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1184,7 +1250,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>

--- a/regionseng/11/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/11/hotels and restaurants/hotels and restaurants.xlsx
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,7 +530,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -548,7 +548,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -564,7 +564,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="7"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -617,8 +617,11 @@
       <c r="R3" s="20">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="20">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -673,8 +676,11 @@
       <c r="R4" s="2">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="2">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -729,8 +735,11 @@
       <c r="R5" s="3">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="3">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -785,8 +794,11 @@
       <c r="R6" s="4">
         <v>1295</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="4">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
@@ -841,8 +853,11 @@
       <c r="R7" s="4">
         <v>1282</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="4">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -897,8 +912,11 @@
       <c r="R8" s="3">
         <v>927.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="3">
+        <v>1219.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
@@ -953,8 +971,11 @@
       <c r="R9" s="3">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="3">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -1009,8 +1030,11 @@
       <c r="R10" s="2">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1065,8 +1089,11 @@
       <c r="R11" s="2">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="2">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
@@ -1121,8 +1148,11 @@
       <c r="R12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1207,11 @@
       <c r="R13" s="3">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="3">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -1233,8 +1266,11 @@
       <c r="R14" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="2">
+        <v>0.3841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1250,7 +1286,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="8" t="s">
         <v>2</v>
       </c>
